--- a/src/ontology/Ontorat_inputs/ndfrt-go.xlsx
+++ b/src/ontology/Ontorat_inputs/ndfrt-go.xlsx
@@ -563,7 +563,7 @@
   <dimension ref="A1:E243"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
